--- a/public/import/Format Kopilibrasi.xlsx
+++ b/public/import/Format Kopilibrasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sharing folder\Novie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E925ED8-EA79-4D5E-9460-3DF60781F1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9F81CB-F8BE-4F05-82EE-658BFED2E731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BF2AF9D6-AE7F-7C48-A86A-71477A9960F7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BF2AF9D6-AE7F-7C48-A86A-71477A9960F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="157">
   <si>
     <t>QTY</t>
   </si>
@@ -124,7 +124,7 @@
     <t>IDR 30,000</t>
   </si>
   <si>
-    <t>IDR 100,000</t>
+    <t>Havana Rum</t>
   </si>
   <si>
     <t>Kopilibrasi</t>
@@ -166,9 +166,6 @@
     <t>Butterschotch</t>
   </si>
   <si>
-    <t>IDR 166,000</t>
-  </si>
-  <si>
     <t>Kentang Balado</t>
   </si>
   <si>
@@ -184,19 +181,25 @@
     <t>IDR 13,500</t>
   </si>
   <si>
+    <t>IDR 51,300</t>
+  </si>
+  <si>
     <t>IDR 18,900</t>
   </si>
   <si>
     <t>IDR 27,000</t>
   </si>
   <si>
-    <t>IDR 35,000</t>
+    <t>IDR 48,600</t>
   </si>
   <si>
     <t>Cookies &amp; Cream</t>
   </si>
   <si>
-    <t>IDR 17,000</t>
+    <t>Taro</t>
+  </si>
+  <si>
+    <t>Beli Gula Cair</t>
   </si>
   <si>
     <t>Beli Minyak</t>
@@ -205,18 +208,9 @@
     <t>Beli Telur</t>
   </si>
   <si>
-    <t>IDR 14,000</t>
-  </si>
-  <si>
-    <t>Beli Bubuk Apple Tea</t>
-  </si>
-  <si>
     <t>Vanilla Marie Regal</t>
   </si>
   <si>
-    <t>IDR 12,000</t>
-  </si>
-  <si>
     <t>Robak Coklat</t>
   </si>
   <si>
@@ -232,9 +226,6 @@
     <t>Red Velvet</t>
   </si>
   <si>
-    <t>Kentang Original</t>
-  </si>
-  <si>
     <t>IDR 34,200</t>
   </si>
   <si>
@@ -244,10 +235,7 @@
     <t>Lychee Tea</t>
   </si>
   <si>
-    <t>Mingguan Enal</t>
-  </si>
-  <si>
-    <t>Beli Susu Diamond</t>
+    <t>Mingguan Tika</t>
   </si>
   <si>
     <t>French Mocca</t>
@@ -262,7 +250,10 @@
     <t>IDR 34,500</t>
   </si>
   <si>
-    <t>Beli Mama Lemon</t>
+    <t>IDR 34,000</t>
+  </si>
+  <si>
+    <t>IDR 45,000</t>
   </si>
   <si>
     <t>IDR 32,000</t>
@@ -274,22 +265,19 @@
     <t>IDR 24,000</t>
   </si>
   <si>
+    <t>IDR 7,500</t>
+  </si>
+  <si>
     <t>IDR 40,000</t>
   </si>
   <si>
-    <t>Beli Lemon</t>
-  </si>
-  <si>
-    <t>Roasted Almond</t>
-  </si>
-  <si>
-    <t>IDR 15,300</t>
-  </si>
-  <si>
-    <t>Irish Cream 500ml</t>
-  </si>
-  <si>
-    <t>IDR 64,000</t>
+    <t>Beli Coklat</t>
+  </si>
+  <si>
+    <t>IDR 28,800</t>
+  </si>
+  <si>
+    <t>Beli bensin</t>
   </si>
   <si>
     <t>IDR 42,000</t>
@@ -298,238 +286,217 @@
     <t>Irish Cream</t>
   </si>
   <si>
-    <t>Double (Indomie)</t>
-  </si>
-  <si>
-    <t>Beli Indomie Goreng</t>
-  </si>
-  <si>
-    <t>IDR 115,000</t>
-  </si>
-  <si>
-    <t>Beli Kentang Crincle</t>
-  </si>
-  <si>
-    <t>IDR 42,500</t>
-  </si>
-  <si>
-    <t>Beli Tahu Bakso</t>
-  </si>
-  <si>
-    <t>11-12-2023</t>
-  </si>
-  <si>
-    <t>IDR 17,200</t>
-  </si>
-  <si>
-    <t>IDR 56,900</t>
-  </si>
-  <si>
-    <t>IDR 101,000</t>
-  </si>
-  <si>
-    <t>Beli Bubuk Apple Tea dan admin</t>
-  </si>
-  <si>
-    <t>Beli Bubuk LemonTea dan admin</t>
-  </si>
-  <si>
-    <t>Hazelnut Latte 500ml</t>
-  </si>
-  <si>
-    <t>IDR 175,000</t>
-  </si>
-  <si>
-    <t>IDR 19,000</t>
-  </si>
-  <si>
-    <t>12-12-2023</t>
-  </si>
-  <si>
-    <t>Beli Telor</t>
+    <t>Beli Susu Kental Manis</t>
+  </si>
+  <si>
+    <t>IDR 206,000</t>
+  </si>
+  <si>
+    <t>Beli Saos</t>
+  </si>
+  <si>
+    <t>IDR 48,000</t>
+  </si>
+  <si>
+    <t>Beli Margarin</t>
+  </si>
+  <si>
+    <t>Beli Sawi</t>
   </si>
   <si>
     <t>IDR 25,000</t>
   </si>
   <si>
-    <t>Ongkir Kirim ke Pak Imam</t>
-  </si>
-  <si>
-    <t>IDR 11,000</t>
-  </si>
-  <si>
-    <t>13-12-2023</t>
-  </si>
-  <si>
-    <t>Sisa Gaji Enal</t>
-  </si>
-  <si>
-    <t>IDR 230,000</t>
-  </si>
-  <si>
-    <t>Beli Sosis Champ isi 40</t>
-  </si>
-  <si>
-    <t>Beli Keju, Saos, Margarin dll</t>
-  </si>
-  <si>
-    <t>IDR 120,000</t>
-  </si>
-  <si>
-    <t>Beli Susu Diamond + admin</t>
-  </si>
-  <si>
-    <t>IDR 200,000</t>
-  </si>
-  <si>
-    <t>Beli Le Minerale</t>
-  </si>
-  <si>
-    <t>IDR 29,000</t>
-  </si>
-  <si>
-    <t>Beli Air Isi Ulang</t>
-  </si>
-  <si>
-    <t>14-12-2023</t>
-  </si>
-  <si>
-    <t>lemon Tea</t>
-  </si>
-  <si>
-    <t>Vanila Marie Regal</t>
-  </si>
-  <si>
-    <t>IDR 99,000</t>
-  </si>
-  <si>
-    <t>Beli Seal Cup</t>
-  </si>
-  <si>
-    <t>IDR 29,900</t>
-  </si>
-  <si>
-    <t>Beli Sedotan</t>
-  </si>
-  <si>
-    <t>Beli Krimer dan Admin</t>
-  </si>
-  <si>
-    <t>IDR 97,200</t>
-  </si>
-  <si>
-    <t>IDR 37,800</t>
-  </si>
-  <si>
-    <t>15-12-2023</t>
-  </si>
-  <si>
-    <t>IDR 140,000</t>
-  </si>
-  <si>
-    <t>Biaya Admin Bca Mouci</t>
-  </si>
-  <si>
-    <t>Biaya Admin Bca Opik</t>
-  </si>
-  <si>
-    <t>Kopilibrasi 500 ml</t>
-  </si>
-  <si>
-    <t>IDR 105,000</t>
-  </si>
-  <si>
-    <t>16-12-2023</t>
-  </si>
-  <si>
-    <t>IDR 204,000</t>
-  </si>
-  <si>
-    <t>Beli Maspion Ceiling Exhaust + Admin</t>
-  </si>
-  <si>
-    <t>IDR 195,000</t>
-  </si>
-  <si>
-    <t>Beli Soklin Lantai</t>
-  </si>
-  <si>
-    <t>IDR 29,100</t>
-  </si>
-  <si>
-    <t>Beli Bumbu kentang keju manis</t>
-  </si>
-  <si>
-    <t>IDR 4,900</t>
-  </si>
-  <si>
-    <t>Beli Sawi &amp; Cabe</t>
-  </si>
-  <si>
-    <t>IDR 112,000</t>
-  </si>
-  <si>
-    <t>Bayar Youtube bulanan</t>
-  </si>
-  <si>
-    <t>Double (Indomie Goreng)</t>
-  </si>
-  <si>
-    <t>17-12-2023</t>
-  </si>
-  <si>
-    <t>Bayar Mingguan Tika</t>
-  </si>
-  <si>
     <t>IDR 60,000</t>
   </si>
   <si>
     <t>Bayar Adel</t>
   </si>
   <si>
-    <t>Beli lampu LED</t>
-  </si>
-  <si>
-    <t>Beli Kipas Angin</t>
-  </si>
-  <si>
-    <t>IDR 249,600</t>
-  </si>
-  <si>
-    <t>Beli bubuk Kopilibrasi &amp; Admin</t>
-  </si>
-  <si>
-    <t>IDR 215,800</t>
-  </si>
-  <si>
-    <t>Matcha Latte 500ml</t>
-  </si>
-  <si>
-    <t>19-12-2023</t>
-  </si>
-  <si>
     <t>IDR 53,000</t>
   </si>
   <si>
-    <t>Beli Nugget</t>
-  </si>
-  <si>
     <t>Beli Sosis</t>
   </si>
   <si>
-    <t>IDR 54,000</t>
-  </si>
-  <si>
     <t>IDR 70,000</t>
   </si>
   <si>
-    <t>20-12-2023</t>
-  </si>
-  <si>
-    <t>Beli Box Takeway</t>
-  </si>
-  <si>
-    <t>Beli Bumbu Kentang (BBQ 4 &amp; Keju 6)</t>
+    <t>21-12-2023</t>
+  </si>
+  <si>
+    <t>Ongkir kirim ke kantor intan</t>
+  </si>
+  <si>
+    <t>Beli Gas</t>
+  </si>
+  <si>
+    <t>Beli Roti Tawar dan Parkir</t>
+  </si>
+  <si>
+    <t>22-12-2023</t>
+  </si>
+  <si>
+    <t>IDR 46,000</t>
+  </si>
+  <si>
+    <t>Beli Plastik kgan</t>
+  </si>
+  <si>
+    <t>23-12-2023</t>
+  </si>
+  <si>
+    <t>Beli Meja &amp; Ongkir</t>
+  </si>
+  <si>
+    <t>IDR 300,000</t>
+  </si>
+  <si>
+    <t>Beli Minyak Goreng</t>
+  </si>
+  <si>
+    <t>Beli Papan tanda + admin</t>
+  </si>
+  <si>
+    <t>IDR 82,610</t>
+  </si>
+  <si>
+    <t>Beli bubuk matcha</t>
+  </si>
+  <si>
+    <t>IDR 135,000</t>
+  </si>
+  <si>
+    <t>24-12-2023</t>
+  </si>
+  <si>
+    <t>IDR 125,000</t>
+  </si>
+  <si>
+    <t>Beli Tissue dan admin</t>
+  </si>
+  <si>
+    <t>Choco Hazelnut 500mk</t>
+  </si>
+  <si>
+    <t>Blackcurrant</t>
+  </si>
+  <si>
+    <t>Nasi Putih</t>
+  </si>
+  <si>
+    <t>IDR 3,000</t>
+  </si>
+  <si>
+    <t>26-12-2023</t>
+  </si>
+  <si>
+    <t>Bayar sampah bulanan</t>
+  </si>
+  <si>
+    <t>Beli Peach Tea dan Admin</t>
+  </si>
+  <si>
+    <t>Beli Susu dan admin</t>
+  </si>
+  <si>
+    <t>Telor Dadar</t>
+  </si>
+  <si>
+    <t>27-12-2023</t>
+  </si>
+  <si>
+    <t>Beli daging BBQ</t>
+  </si>
+  <si>
+    <t>IDR 560,600</t>
+  </si>
+  <si>
+    <t>Beli Super Sol</t>
+  </si>
+  <si>
+    <t>Beli Nagget</t>
+  </si>
+  <si>
+    <t>Beli Margarin dll</t>
+  </si>
+  <si>
+    <t>IDR 106,000</t>
+  </si>
+  <si>
+    <t>Beli Syrup Dripp Butterschotch dan admin</t>
+  </si>
+  <si>
+    <t>28-12-2023</t>
+  </si>
+  <si>
+    <t>Beli bumbu balado</t>
+  </si>
+  <si>
+    <t>Beli Gelas Plastik</t>
+  </si>
+  <si>
+    <t>Beli Sumpit + Sendok</t>
+  </si>
+  <si>
+    <t>Beli Steamboat 500gr</t>
+  </si>
+  <si>
+    <t>Beli Scalop 500gr</t>
+  </si>
+  <si>
+    <t>29-12-2023</t>
+  </si>
+  <si>
+    <t>Bayar Freelance</t>
+  </si>
+  <si>
+    <t>Beli Batrei Alkaline AAA</t>
+  </si>
+  <si>
+    <t>Beli Air Mineral Crystaline</t>
+  </si>
+  <si>
+    <t>IDR 46,500</t>
+  </si>
+  <si>
+    <t>Beli Syrup Trieste Hazelnut</t>
+  </si>
+  <si>
+    <t>Beli Bumbu Kentang</t>
+  </si>
+  <si>
+    <t>Beli Susu Kental manis</t>
+  </si>
+  <si>
+    <t>30-12-2023</t>
+  </si>
+  <si>
+    <t>Beli isi Spidol</t>
+  </si>
+  <si>
+    <t>Beli Plastik Sampah</t>
+  </si>
+  <si>
+    <t>Plastik Cup 35ml</t>
+  </si>
+  <si>
+    <t>Beli Gas Kompor Portable</t>
+  </si>
+  <si>
+    <t>Beli Kanebo</t>
+  </si>
+  <si>
+    <t>IDR 14,500</t>
+  </si>
+  <si>
+    <t>Beli Botol Sauce</t>
+  </si>
+  <si>
+    <t>IDR 39,000</t>
+  </si>
+  <si>
+    <t>31-12-2023</t>
   </si>
 </sst>
 </file>
@@ -944,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D006A9C-9829-F847-99D2-F31322E23C42}">
   <dimension ref="A1:D476"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -972,49 +939,49 @@
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C4" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>34</v>
@@ -1028,399 +995,399 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C7" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C10" s="10">
         <v>2</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C12" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C14" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C15" s="10">
         <v>1</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C16" s="10">
         <v>1</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C17" s="10">
         <v>1</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C18" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C19" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C20" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C21" s="10">
         <v>1</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="10">
-        <v>1</v>
-      </c>
       <c r="D22" s="12" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C23" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C24" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C25" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="C27" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C29" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C31" s="10">
         <v>1</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C32" s="10">
         <v>1</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C33" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>33</v>
@@ -1429,194 +1396,194 @@
         <v>1</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C35" s="10">
         <v>1</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C36" s="10">
         <v>1</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C37" s="10">
         <v>1</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C38" s="10">
         <v>1</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C39" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C40" s="10">
         <v>1</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="10">
         <v>1</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C42" s="10">
         <v>1</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C43" s="10">
         <v>1</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C44" s="10">
         <v>1</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C45" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C46" s="10">
         <v>1</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C47" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>2</v>
@@ -1630,234 +1597,234 @@
     </row>
     <row r="49" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C49" s="10">
         <v>1</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C50" s="10">
         <v>1</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C51" s="10">
         <v>1</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C52" s="10">
         <v>1</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C53" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C54" s="10">
         <v>1</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C55" s="10">
         <v>1</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C56" s="10">
         <v>1</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C59" s="10">
         <v>1</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C60" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C61" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C62" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C63" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C64" s="10">
         <v>1</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C65" s="10">
         <v>1</v>
@@ -1868,203 +1835,203 @@
     </row>
     <row r="66" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C66" s="10">
         <v>1</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C67" s="10">
         <v>1</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C68" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C69" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C70" s="10">
         <v>1</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C71" s="10">
         <v>1</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C72" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C73" s="10">
         <v>1</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C74" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="C75" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C76" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C78" s="10">
         <v>1</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="C79" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>4</v>
@@ -2078,430 +2045,430 @@
     </row>
     <row r="81" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C81" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C82" s="10">
         <v>1</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C83" s="10">
         <v>1</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C84" s="10">
         <v>1</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C85" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C86" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C87" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C88" s="10">
         <v>1</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C89" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C90" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="C91" s="10">
         <v>1</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C92" s="10">
         <v>1</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C93" s="10">
         <v>1</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C94" s="10">
         <v>1</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C95" s="10">
         <v>1</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C96" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C97" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C98" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C99" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C100" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C101" s="10">
         <v>1</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C102" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C103" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C104" s="10">
         <v>1</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="6" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C105" s="10">
         <v>1</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="6" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="6" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C107" s="10">
         <v>1</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C108" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="C109" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="C110" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C111" s="10">
         <v>1</v>
@@ -2512,598 +2479,598 @@
     </row>
     <row r="112" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C112" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C113" s="10">
         <v>1</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C114" s="10">
         <v>1</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C115" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C116" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C117" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C118" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C119" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C120" s="10">
         <v>1</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C121" s="10">
         <v>1</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C122" s="10">
         <v>1</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C123" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C124" s="10">
         <v>1</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C125" s="10">
         <v>1</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="C126" s="10">
         <v>1</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C127" s="10">
         <v>1</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C128" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="C129" s="10">
         <v>1</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="C130" s="10">
         <v>1</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C131" s="10">
         <v>1</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="C132" s="10">
         <v>1</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C133" s="10">
         <v>1</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C134" s="10">
         <v>3</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C135" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C137" s="10">
         <v>1</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C138" s="10">
         <v>1</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C139" s="10">
         <v>1</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C140" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C141" s="10">
         <v>1</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C142" s="10">
         <v>1</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C143" s="10">
         <v>1</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C144" s="10">
         <v>1</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="C145" s="10">
         <v>1</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C146" s="10">
         <v>1</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="C147" s="10">
         <v>2</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C148" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C149" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="C150" s="10">
         <v>1</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C151" s="10">
         <v>1</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C152" s="10">
         <v>1</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C153" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C154" s="10">
         <v>1</v>
@@ -3114,66 +3081,66 @@
     </row>
     <row r="155" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C155" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C156" s="10">
         <v>2</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C157" s="10">
         <v>1</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C158" s="10">
         <v>1</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C159" s="10">
         <v>1</v>
@@ -3184,108 +3151,108 @@
     </row>
     <row r="160" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="C160" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C161" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C162" s="10">
         <v>1</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="C163" s="10">
         <v>1</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C164" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C165" s="10">
         <v>1</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C166" s="10">
         <v>1</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C167" s="10">
         <v>1</v>
@@ -3296,108 +3263,108 @@
     </row>
     <row r="168" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="C168" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C169" s="10">
         <v>1</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C170" s="10">
         <v>1</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C171" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C172" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C173" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C174" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C175" s="10">
         <v>1</v>
@@ -3408,52 +3375,52 @@
     </row>
     <row r="176" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C176" s="10">
         <v>1</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C177" s="10">
         <v>1</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C178" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C179" s="10">
         <v>1</v>
@@ -3464,178 +3431,178 @@
     </row>
     <row r="180" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C180" s="10">
         <v>1</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="C181" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C182" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C183" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C184" s="10">
         <v>1</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C185" s="10">
         <v>1</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C186" s="10">
         <v>1</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C187" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="6" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C188" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C189" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C190" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="C191" s="10">
         <v>1</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C192" s="10">
         <v>1</v>
@@ -3646,80 +3613,80 @@
     </row>
     <row r="193" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C193" s="10">
         <v>1</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C194" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C195" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C196" s="10">
         <v>1</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C197" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C198" s="10">
         <v>1</v>
@@ -3730,52 +3697,52 @@
     </row>
     <row r="199" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C199" s="10">
         <v>1</v>
       </c>
       <c r="D199" s="12" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C200" s="10">
         <v>1</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C201" s="10">
         <v>1</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C202" s="10">
         <v>1</v>
@@ -3786,234 +3753,234 @@
     </row>
     <row r="203" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C203" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="C204" s="10">
         <v>1</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="C205" s="10">
         <v>1</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="C206" s="10">
         <v>1</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C207" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C208" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C209" s="10">
         <v>1</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="C210" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C211" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C212" s="10">
         <v>1</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C213" s="10">
         <v>1</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C214" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C215" s="10">
         <v>1</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C216" s="10">
         <v>1</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C217" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A218" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C218" s="10">
         <v>1</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C219" s="10">
         <v>1</v>
@@ -4024,337 +3991,633 @@
     </row>
     <row r="220" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C220" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C221" s="10">
         <v>1</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C222" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C223" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A224" s="6" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C224" s="10">
         <v>1</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A225" s="6" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C225" s="10">
         <v>1</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="6" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C226" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="6" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B227" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" s="10">
+        <v>3</v>
+      </c>
+      <c r="D227" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A228" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C228" s="10">
+        <v>1</v>
+      </c>
+      <c r="D228" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A229" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C229" s="10">
+        <v>1</v>
+      </c>
+      <c r="D229" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A230" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C230" s="10">
+        <v>1</v>
+      </c>
+      <c r="D230" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A231" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C231" s="10">
+        <v>1</v>
+      </c>
+      <c r="D231" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A232" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B232" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C227" s="10">
-        <v>1</v>
-      </c>
-      <c r="D227" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A228" s="6"/>
-      <c r="B228" s="5"/>
-      <c r="C228" s="10"/>
-      <c r="D228" s="12"/>
-    </row>
-    <row r="229" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A229" s="6"/>
-      <c r="B229" s="5"/>
-      <c r="C229" s="10"/>
-      <c r="D229" s="12"/>
-    </row>
-    <row r="230" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="6"/>
-      <c r="B230" s="5"/>
-      <c r="C230" s="10"/>
-      <c r="D230" s="12"/>
-    </row>
-    <row r="231" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A231" s="6"/>
-      <c r="B231" s="5"/>
-      <c r="C231" s="10"/>
-      <c r="D231" s="12"/>
-    </row>
-    <row r="232" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="6"/>
-      <c r="B232" s="5"/>
-      <c r="C232" s="10"/>
-      <c r="D232" s="12"/>
+      <c r="C232" s="10">
+        <v>2</v>
+      </c>
+      <c r="D232" s="12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="233" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="6"/>
-      <c r="B233" s="5"/>
-      <c r="C233" s="10"/>
-      <c r="D233" s="12"/>
+      <c r="A233" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C233" s="10">
+        <v>2</v>
+      </c>
+      <c r="D233" s="12" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="234" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="6"/>
-      <c r="B234" s="5"/>
-      <c r="C234" s="10"/>
-      <c r="D234" s="12"/>
+      <c r="A234" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C234" s="10">
+        <v>1</v>
+      </c>
+      <c r="D234" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="235" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="6"/>
-      <c r="B235" s="5"/>
-      <c r="C235" s="10"/>
-      <c r="D235" s="12"/>
+      <c r="A235" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C235" s="10">
+        <v>1</v>
+      </c>
+      <c r="D235" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="236" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="6"/>
-      <c r="B236" s="5"/>
-      <c r="C236" s="10"/>
-      <c r="D236" s="12"/>
+      <c r="A236" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C236" s="10">
+        <v>1</v>
+      </c>
+      <c r="D236" s="12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="237" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A237" s="6"/>
-      <c r="B237" s="5"/>
-      <c r="C237" s="10"/>
-      <c r="D237" s="12"/>
+      <c r="A237" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C237" s="10">
+        <v>1</v>
+      </c>
+      <c r="D237" s="12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="238" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="6"/>
-      <c r="B238" s="5"/>
-      <c r="C238" s="10"/>
-      <c r="D238" s="12"/>
+      <c r="A238" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C238" s="10">
+        <v>1</v>
+      </c>
+      <c r="D238" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="239" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="6"/>
-      <c r="B239" s="5"/>
-      <c r="C239" s="10"/>
-      <c r="D239" s="12"/>
+      <c r="A239" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" s="10">
+        <v>1</v>
+      </c>
+      <c r="D239" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="240" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="6"/>
-      <c r="B240" s="5"/>
-      <c r="C240" s="10"/>
-      <c r="D240" s="12"/>
+      <c r="A240" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" s="10">
+        <v>1</v>
+      </c>
+      <c r="D240" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="241" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A241" s="6"/>
-      <c r="B241" s="5"/>
-      <c r="C241" s="10"/>
-      <c r="D241" s="12"/>
+      <c r="A241" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C241" s="10">
+        <v>1</v>
+      </c>
+      <c r="D241" s="12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="242" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A242" s="6"/>
-      <c r="B242" s="5"/>
-      <c r="C242" s="10"/>
-      <c r="D242" s="12"/>
+      <c r="A242" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C242" s="10">
+        <v>1</v>
+      </c>
+      <c r="D242" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="243" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A243" s="6"/>
-      <c r="B243" s="5"/>
-      <c r="C243" s="10"/>
-      <c r="D243" s="12"/>
+      <c r="A243" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C243" s="10">
+        <v>1</v>
+      </c>
+      <c r="D243" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="244" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A244" s="6"/>
-      <c r="B244" s="5"/>
-      <c r="C244" s="10"/>
-      <c r="D244" s="12"/>
+      <c r="A244" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C244" s="10">
+        <v>1</v>
+      </c>
+      <c r="D244" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="245" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="6"/>
-      <c r="B245" s="5"/>
-      <c r="C245" s="10"/>
-      <c r="D245" s="12"/>
+      <c r="A245" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245" s="10">
+        <v>1</v>
+      </c>
+      <c r="D245" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="246" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="6"/>
-      <c r="B246" s="5"/>
-      <c r="C246" s="10"/>
-      <c r="D246" s="12"/>
+      <c r="A246" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C246" s="10">
+        <v>1</v>
+      </c>
+      <c r="D246" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="247" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="6"/>
-      <c r="B247" s="5"/>
-      <c r="C247" s="10"/>
-      <c r="D247" s="12"/>
+      <c r="A247" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C247" s="10">
+        <v>1</v>
+      </c>
+      <c r="D247" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="248" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="6"/>
-      <c r="B248" s="5"/>
-      <c r="C248" s="10"/>
-      <c r="D248" s="12"/>
+      <c r="A248" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C248" s="10">
+        <v>1</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="249" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="6"/>
-      <c r="B249" s="5"/>
-      <c r="C249" s="10"/>
-      <c r="D249" s="12"/>
+      <c r="A249" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C249" s="10">
+        <v>1</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="250" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="6"/>
-      <c r="B250" s="5"/>
-      <c r="C250" s="10"/>
-      <c r="D250" s="12"/>
+      <c r="A250" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250" s="10">
+        <v>1</v>
+      </c>
+      <c r="D250" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="251" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A251" s="6"/>
-      <c r="B251" s="5"/>
-      <c r="C251" s="10"/>
-      <c r="D251" s="12"/>
+      <c r="A251" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C251" s="10">
+        <v>3</v>
+      </c>
+      <c r="D251" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="252" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A252" s="6"/>
-      <c r="B252" s="5"/>
-      <c r="C252" s="10"/>
-      <c r="D252" s="12"/>
+      <c r="A252" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C252" s="10">
+        <v>2</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="253" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A253" s="6"/>
-      <c r="B253" s="5"/>
-      <c r="C253" s="10"/>
-      <c r="D253" s="12"/>
+      <c r="A253" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C253" s="10">
+        <v>3</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="254" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="6"/>
-      <c r="B254" s="5"/>
-      <c r="C254" s="10"/>
-      <c r="D254" s="12"/>
+      <c r="A254" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C254" s="10">
+        <v>1</v>
+      </c>
+      <c r="D254" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="255" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="6"/>
-      <c r="B255" s="5"/>
-      <c r="C255" s="10"/>
-      <c r="D255" s="12"/>
+      <c r="A255" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C255" s="10">
+        <v>1</v>
+      </c>
+      <c r="D255" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="256" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A256" s="6"/>
-      <c r="B256" s="5"/>
-      <c r="C256" s="10"/>
-      <c r="D256" s="12"/>
+      <c r="A256" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="10">
+        <v>1</v>
+      </c>
+      <c r="D256" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="257" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A257" s="6"/>
-      <c r="B257" s="5"/>
-      <c r="C257" s="10"/>
-      <c r="D257" s="12"/>
+      <c r="A257" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C257" s="10">
+        <v>1</v>
+      </c>
+      <c r="D257" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="258" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A258" s="6"/>
-      <c r="B258" s="5"/>
-      <c r="C258" s="10"/>
-      <c r="D258" s="12"/>
+      <c r="A258" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C258" s="10">
+        <v>1</v>
+      </c>
+      <c r="D258" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="259" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="6"/>
-      <c r="B259" s="5"/>
-      <c r="C259" s="10"/>
-      <c r="D259" s="12"/>
+      <c r="A259" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C259" s="10">
+        <v>4</v>
+      </c>
+      <c r="D259" s="12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="260" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A260" s="6"/>
-      <c r="B260" s="5"/>
-      <c r="C260" s="10"/>
-      <c r="D260" s="12"/>
+      <c r="A260" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260" s="10">
+        <v>1</v>
+      </c>
+      <c r="D260" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="261" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A261" s="6"/>
-      <c r="B261" s="5"/>
-      <c r="C261" s="10"/>
-      <c r="D261" s="12"/>
+      <c r="A261" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C261" s="10">
+        <v>1</v>
+      </c>
+      <c r="D261" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="262" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A262" s="6"/>
-      <c r="B262" s="5"/>
-      <c r="C262" s="10"/>
-      <c r="D262" s="12"/>
+      <c r="A262" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C262" s="10">
+        <v>1</v>
+      </c>
+      <c r="D262" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="263" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A263" s="6"/>
-      <c r="B263" s="5"/>
-      <c r="C263" s="10"/>
-      <c r="D263" s="12"/>
+      <c r="A263" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C263" s="10">
+        <v>2</v>
+      </c>
+      <c r="D263" s="12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="264" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A264" s="6"/>
-      <c r="B264" s="5"/>
-      <c r="C264" s="10"/>
-      <c r="D264" s="12"/>
+      <c r="A264" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C264" s="10">
+        <v>3</v>
+      </c>
+      <c r="D264" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="265" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A265" s="6"/>
@@ -5638,8 +5901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB44135-E79E-DD4F-AA05-87D6BDFA7217}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5666,77 +5929,77 @@
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C6" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>29</v>
@@ -5745,600 +6008,680 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C8" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C11" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C12" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="10">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C14" s="10">
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C15" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="C16" s="10">
         <v>1</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="C17" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C18" s="10">
         <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="C19" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="C20" s="10">
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C21" s="10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C22" s="10">
         <v>1</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C23" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="C24" s="10">
-        <v>12</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="C25" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="C26" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="C27" s="10">
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="C28" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C29" s="10">
         <v>1</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="10">
         <v>1</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="C31" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="C32" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C33" s="10">
         <v>1</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C34" s="10">
         <v>1</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="C35" s="10">
         <v>1</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C36" s="10">
         <v>1</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="C37" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="C38" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="C39" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="C40" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C41" s="10">
         <v>1</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C42" s="10">
         <v>1</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C43" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C44" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="C45" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="6"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="4"/>
+      <c r="A46" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="10">
+        <v>1</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="6"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="4"/>
+      <c r="A47" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="10">
+        <v>2</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="6"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="4"/>
+      <c r="A48" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="10">
+        <v>2</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="6"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="4"/>
+      <c r="A49" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="10">
+        <v>2</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="6"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="4"/>
+      <c r="A50" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="10">
+        <v>2</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="6"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="4"/>
+      <c r="A51" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="10">
+        <v>1</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="6"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="4"/>
+      <c r="A52" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="10">
+        <v>1</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="6"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="4"/>
+      <c r="A53" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="10">
+        <v>1</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="6"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="4"/>
+      <c r="A54" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="10">
+        <v>1</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="6"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="4"/>
+      <c r="A55" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="10">
+        <v>3</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="6"/>
